--- a/code/excels/kvConfig/pool_config.xlsx
+++ b/code/excels/kvConfig/pool_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>池子id</t>
   </si>
@@ -62,13 +62,250 @@
     <t>isVaild</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>天梯积分</t>
+    <t>building_hero_axe</t>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
+    <t>building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>水晶室女</t>
+  </si>
+  <si>
+    <t>building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>building_hero_mirana</t>
+  </si>
+  <si>
+    <t>米拉娜</t>
+  </si>
+  <si>
+    <t>building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>风暴之灵</t>
+  </si>
+  <si>
+    <t>building_hero_sven</t>
+  </si>
+  <si>
+    <t>斯文</t>
+  </si>
+  <si>
+    <t>building_hero_zuus</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>building_hero_lina</t>
+  </si>
+  <si>
+    <t>莉娜</t>
+  </si>
+  <si>
+    <t>building_hero_slardar</t>
+  </si>
+  <si>
+    <t>斯拉达</t>
+  </si>
+  <si>
+    <t>building_hero_tinker</t>
+  </si>
+  <si>
+    <t>修补匠</t>
+  </si>
+  <si>
+    <t>building_hero_sniper</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>剧毒术士</t>
+  </si>
+  <si>
+    <t>building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>死亡先知</t>
+  </si>
+  <si>
+    <t>building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>幻影刺客</t>
+  </si>
+  <si>
+    <t>building_hero_pugna</t>
+  </si>
+  <si>
+    <t>帕格纳</t>
+  </si>
+  <si>
+    <t>building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>圣堂刺客</t>
+  </si>
+  <si>
+    <t>building_hero_viper</t>
+  </si>
+  <si>
+    <t>冥界亚龙</t>
+  </si>
+  <si>
+    <t>building_hero_luna</t>
+  </si>
+  <si>
+    <t>露娜</t>
+  </si>
+  <si>
+    <t>building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>龙骑士</t>
+  </si>
+  <si>
+    <t>building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>拉希克</t>
+  </si>
+  <si>
+    <t>building_hero_furion</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>全能骑士</t>
+  </si>
+  <si>
+    <t>building_hero_huskar</t>
+  </si>
+  <si>
+    <t>神灵武士</t>
+  </si>
+  <si>
+    <t>building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>building_hero_ursa</t>
+  </si>
+  <si>
+    <t>熊战士</t>
+  </si>
+  <si>
+    <t>building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>矮人直升机</t>
+  </si>
+  <si>
+    <t>building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>炼金</t>
+  </si>
+  <si>
+    <t>building_hero_lycan</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>混沌骑士</t>
+  </si>
+  <si>
+    <t>building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>食人魔魔法师</t>
+  </si>
+  <si>
+    <t>building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>干扰者</t>
+  </si>
+  <si>
+    <t>building_hero_slark</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>building_hero_medusa</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>building_hero_centaur</t>
+  </si>
+  <si>
+    <t>半人马战行者</t>
+  </si>
+  <si>
+    <t>building_hero_shredder</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>building_hero_ember_spirit</t>
+  </si>
+  <si>
+    <t>灰烬之灵</t>
+  </si>
+  <si>
+    <t>building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>大地之灵</t>
+  </si>
+  <si>
+    <t>building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>冰霜巨龙</t>
+  </si>
+  <si>
+    <t>building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>石鳞剑士</t>
+  </si>
+  <si>
+    <t>building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>虚无之灵</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -108,8 +345,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,14 +358,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,12 +387,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -187,24 +447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,21 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,16 +487,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,25 +510,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,157 +678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,11 +713,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,205 +801,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -735,6 +972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,21 +1295,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.58333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.53333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.54166666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.65" customWidth="1"/>
+    <col min="3" max="3" width="29.3333333333333" customWidth="1"/>
     <col min="4" max="5" width="12.8916666666667" customWidth="1"/>
     <col min="6" max="6" width="12.025" customWidth="1"/>
     <col min="7" max="7" width="12.7583333333333" style="5" customWidth="1"/>
@@ -1125,195 +1365,892 @@
       <c r="A3" s="5">
         <v>1000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
         <v>1001</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4">
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8">
         <v>1002</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5">
-        <v>1003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7">
-        <v>1002</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8">
-        <v>1003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9">
-        <v>1004</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1001</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11">
-        <v>1002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12">
-        <v>1003</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13">
-        <v>1005</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="C36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +2266,7 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1343,10 +2280,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1369,10 +2306,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -1395,39 +2332,39 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>

--- a/code/excels/kvConfig/pool_config.xlsx
+++ b/code/excels/kvConfig/pool_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
   <si>
     <t>池子id</t>
   </si>
@@ -68,10 +68,10 @@
     <t>斧王</t>
   </si>
   <si>
-    <t>building_hero_crystal_maiden</t>
-  </si>
-  <si>
-    <t>水晶室女</t>
+    <t>building_hero_kunkka</t>
+  </si>
+  <si>
+    <t>船长</t>
   </si>
   <si>
     <t>building_hero_juggernaut</t>
@@ -80,16 +80,16 @@
     <t>主宰</t>
   </si>
   <si>
-    <t>building_hero_mirana</t>
-  </si>
-  <si>
-    <t>米拉娜</t>
-  </si>
-  <si>
-    <t>building_hero_storm_spirit</t>
-  </si>
-  <si>
-    <t>风暴之灵</t>
+    <t>building_hero_mars</t>
+  </si>
+  <si>
+    <t>马尔斯</t>
+  </si>
+  <si>
+    <t>building_hero_primal_beast</t>
+  </si>
+  <si>
+    <t>獸</t>
   </si>
   <si>
     <t>building_hero_sven</t>
@@ -98,16 +98,16 @@
     <t>斯文</t>
   </si>
   <si>
-    <t>building_hero_zuus</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>building_hero_lina</t>
-  </si>
-  <si>
-    <t>莉娜</t>
+    <t>building_hero_pudge</t>
+  </si>
+  <si>
+    <t>屠夫</t>
+  </si>
+  <si>
+    <t>building_hero_skeleton_king</t>
+  </si>
+  <si>
+    <t>骷髅王</t>
   </si>
   <si>
     <t>building_hero_slardar</t>
@@ -116,196 +116,22 @@
     <t>斯拉达</t>
   </si>
   <si>
-    <t>building_hero_tinker</t>
-  </si>
-  <si>
-    <t>修补匠</t>
-  </si>
-  <si>
-    <t>building_hero_sniper</t>
-  </si>
-  <si>
-    <t>狙击手</t>
-  </si>
-  <si>
-    <t>building_hero_venomancer</t>
-  </si>
-  <si>
-    <t>剧毒术士</t>
-  </si>
-  <si>
-    <t>building_hero_death_prophet</t>
-  </si>
-  <si>
-    <t>死亡先知</t>
-  </si>
-  <si>
-    <t>building_hero_phantom_assassin</t>
-  </si>
-  <si>
-    <t>幻影刺客</t>
-  </si>
-  <si>
-    <t>building_hero_pugna</t>
-  </si>
-  <si>
-    <t>帕格纳</t>
-  </si>
-  <si>
-    <t>building_hero_templar_assassin</t>
-  </si>
-  <si>
-    <t>圣堂刺客</t>
-  </si>
-  <si>
-    <t>building_hero_viper</t>
-  </si>
-  <si>
-    <t>冥界亚龙</t>
-  </si>
-  <si>
-    <t>building_hero_luna</t>
-  </si>
-  <si>
-    <t>露娜</t>
-  </si>
-  <si>
-    <t>building_hero_dragon_knight</t>
-  </si>
-  <si>
-    <t>龙骑士</t>
-  </si>
-  <si>
-    <t>building_hero_leshrac</t>
-  </si>
-  <si>
-    <t>拉希克</t>
-  </si>
-  <si>
-    <t>building_hero_furion</t>
-  </si>
-  <si>
-    <t>先知</t>
-  </si>
-  <si>
-    <t>building_hero_omniknight</t>
-  </si>
-  <si>
-    <t>全能骑士</t>
-  </si>
-  <si>
-    <t>building_hero_huskar</t>
-  </si>
-  <si>
-    <t>神灵武士</t>
-  </si>
-  <si>
-    <t>building_hero_bounty_hunter</t>
-  </si>
-  <si>
-    <t>赏金猎人</t>
+    <t>building_hero_troll_warlord</t>
+  </si>
+  <si>
+    <t>巨魔战将</t>
+  </si>
+  <si>
+    <t>building_hero_tusk</t>
+  </si>
+  <si>
+    <t>海民</t>
   </si>
   <si>
     <t>building_hero_ursa</t>
   </si>
   <si>
     <t>熊战士</t>
-  </si>
-  <si>
-    <t>building_hero_gyrocopter</t>
-  </si>
-  <si>
-    <t>矮人直升机</t>
-  </si>
-  <si>
-    <t>building_hero_alchemist</t>
-  </si>
-  <si>
-    <t>炼金</t>
-  </si>
-  <si>
-    <t>building_hero_lycan</t>
-  </si>
-  <si>
-    <t>狼人</t>
-  </si>
-  <si>
-    <t>building_hero_lone_druid</t>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>building_hero_chaos_knight</t>
-  </si>
-  <si>
-    <t>混沌骑士</t>
-  </si>
-  <si>
-    <t>building_hero_ogre_magi</t>
-  </si>
-  <si>
-    <t>食人魔魔法师</t>
-  </si>
-  <si>
-    <t>building_hero_disruptor</t>
-  </si>
-  <si>
-    <t>干扰者</t>
-  </si>
-  <si>
-    <t>building_hero_slark</t>
-  </si>
-  <si>
-    <t>斯拉克</t>
-  </si>
-  <si>
-    <t>building_hero_medusa</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>building_hero_centaur</t>
-  </si>
-  <si>
-    <t>半人马战行者</t>
-  </si>
-  <si>
-    <t>building_hero_shredder</t>
-  </si>
-  <si>
-    <t>伐木机</t>
-  </si>
-  <si>
-    <t>building_hero_ember_spirit</t>
-  </si>
-  <si>
-    <t>灰烬之灵</t>
-  </si>
-  <si>
-    <t>building_hero_earth_spirit</t>
-  </si>
-  <si>
-    <t>大地之灵</t>
-  </si>
-  <si>
-    <t>building_hero_winter_wyvern</t>
-  </si>
-  <si>
-    <t>冰霜巨龙</t>
-  </si>
-  <si>
-    <t>building_hero_pangolier</t>
-  </si>
-  <si>
-    <t>石鳞剑士</t>
-  </si>
-  <si>
-    <t>building_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>虚无之灵</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -343,12 +169,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +183,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -365,7 +221,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,29 +258,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,47 +289,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,30 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -510,25 +343,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,157 +511,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,6 +541,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -731,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,22 +596,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,31 +634,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,137 +652,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -974,6 +807,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1295,14 +1131,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24:G54"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1466,11 +1302,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" ht="15.5" spans="3:7">
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="6">
@@ -1483,11 +1319,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" ht="15.5" spans="3:7">
       <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="6">
@@ -1517,11 +1353,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:7">
+    <row r="12" ht="15.5" spans="3:7">
       <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="6">
@@ -1534,11 +1370,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
+    <row r="13" ht="15.5" spans="3:7">
       <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="6">
@@ -1551,11 +1387,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:7">
+    <row r="14" ht="15.5" spans="3:7">
       <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="6">
@@ -1568,12 +1404,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:7">
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>1001</v>
+      </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -1587,10 +1426,10 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="9" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1604,10 +1443,10 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -1621,10 +1460,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -1636,15 +1475,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8">
-        <v>1001</v>
-      </c>
+    <row r="19" spans="3:7">
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -1658,10 +1494,10 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -1673,12 +1509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" ht="15.5" spans="3:7">
       <c r="C21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -1690,12 +1526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" ht="15.5" spans="3:7">
       <c r="C22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -1709,10 +1545,10 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -1724,12 +1560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" ht="15.5" spans="3:7">
       <c r="C24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -1741,12 +1577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" ht="15.5" spans="3:7">
       <c r="C25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -1758,12 +1594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" ht="15.5" spans="3:7">
       <c r="C26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -1775,12 +1611,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>1002</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -1794,10 +1633,10 @@
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="9" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -1811,10 +1650,10 @@
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="9" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -1828,10 +1667,10 @@
     </row>
     <row r="30" spans="3:7">
       <c r="C30" s="9" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -1845,10 +1684,10 @@
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="9" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -1862,10 +1701,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="9" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
@@ -1877,12 +1716,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" ht="15.5" spans="3:7">
       <c r="C33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
@@ -1894,12 +1733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" ht="15.5" spans="3:7">
       <c r="C34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -1913,10 +1752,10 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -1928,15 +1767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8">
-        <v>1002</v>
-      </c>
+    <row r="36" ht="15.5" spans="3:7">
       <c r="C36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E36" s="6">
         <v>1</v>
@@ -1948,12 +1784,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" ht="15.5" spans="3:7">
       <c r="C37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -1965,12 +1801,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" ht="15.5" spans="3:7">
       <c r="C38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
@@ -1979,278 +1815,6 @@
         <v>1</v>
       </c>
       <c r="G38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="C48" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="C52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="C53" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="C54" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2280,10 +1844,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2306,10 +1870,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -2332,39 +1896,39 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
